--- a/Front Board/BOM-FB-Rev2h.xlsx
+++ b/Front Board/BOM-FB-Rev2h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\Front Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12597FB-982A-4899-87CE-4FDB84CF9D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFED550-475A-416B-A8C3-86211C2E6B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1140" windowWidth="24510" windowHeight="15255" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
+    <workbookView xWindow="3720" yWindow="1770" windowWidth="24510" windowHeight="15255" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FrontBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -1809,13 +1809,16 @@
     <t>This could be the replacement for the now obsolete MRA112, we have not tested this! Newark has this p/n: 51P22-01-1-16N</t>
   </si>
   <si>
-    <t>lso check Newark, they have transformers that are less expensive and some low stock parts still available.</t>
+    <t>Also check Newark, they have transformers that are less expensive and some low stock parts still available.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$]d\ mmm\ yyyy;@" x16r2:formatCode16="[$-en-NL,1]d\ mmm\ yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1986,7 +1989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2012,9 +2015,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2052,16 +2052,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2384,8 +2391,8 @@
   </sheetPr>
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,7 +3295,7 @@
       <c r="A31" s="3">
         <v>1</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>572</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -3316,13 +3323,13 @@
       <c r="K31" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="11" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>574</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3348,7 +3355,7 @@
       <c r="K32" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="L32" s="13"/>
+      <c r="L32" s="12"/>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
@@ -3486,7 +3493,7 @@
       <c r="A37" s="3">
         <v>1</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>258</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -3514,7 +3521,7 @@
       <c r="K37" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="11" t="s">
         <v>581</v>
       </c>
     </row>
@@ -3522,7 +3529,7 @@
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>264</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -3550,7 +3557,7 @@
       <c r="K38" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="L38" s="12" t="s">
+      <c r="L38" s="11" t="s">
         <v>581</v>
       </c>
     </row>
@@ -3591,7 +3598,7 @@
       <c r="A40" s="3">
         <v>1</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>276</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -3619,7 +3626,7 @@
       <c r="K40" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="L40" s="12" t="s">
+      <c r="L40" s="11" t="s">
         <v>581</v>
       </c>
     </row>
@@ -4980,7 +4987,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>569</v>
       </c>
       <c r="C85" s="4" t="s">
@@ -5006,7 +5013,7 @@
       <c r="K85" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="L85" s="12" t="s">
+      <c r="L85" s="11" t="s">
         <v>571</v>
       </c>
     </row>
@@ -5139,39 +5146,39 @@
       <c r="K89" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="L89" s="12" t="s">
+      <c r="L89" s="11" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="E90" s="27"/>
-      <c r="F90" s="11" t="s">
+      <c r="E90" s="24"/>
+      <c r="F90" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="G90" s="27"/>
-      <c r="H90" s="11" t="s">
+      <c r="G90" s="24"/>
+      <c r="H90" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="I90" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="J90" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K90" s="11" t="s">
+      <c r="J90" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="L90" s="12" t="s">
+      <c r="L90" s="11" t="s">
         <v>592</v>
       </c>
     </row>
@@ -5360,39 +5367,39 @@
       <c r="K96" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="L96" s="12" t="s">
+      <c r="L96" s="11" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="E97" s="27"/>
-      <c r="F97" s="11" t="s">
+      <c r="E97" s="24"/>
+      <c r="F97" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="G97" s="27"/>
-      <c r="H97" s="11" t="s">
+      <c r="G97" s="24"/>
+      <c r="H97" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="I97" s="11" t="s">
+      <c r="I97" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="J97" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K97" s="11" t="s">
+      <c r="J97" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="L97" s="12" t="s">
+      <c r="L97" s="11" t="s">
         <v>589</v>
       </c>
     </row>
@@ -5495,7 +5502,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="27" t="s">
         <v>522</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -5503,7 +5510,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+      <c r="B104" s="28" t="s">
         <v>523</v>
       </c>
       <c r="C104" t="s">
@@ -5511,47 +5518,55 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="28"/>
       <c r="C105" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="28"/>
       <c r="C106" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="28"/>
       <c r="C107" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="28"/>
       <c r="C108" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="28"/>
       <c r="C109" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="28"/>
       <c r="C110" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="28"/>
       <c r="C111" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="28"/>
       <c r="C112" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+      <c r="B113" s="28" t="s">
         <v>544</v>
       </c>
       <c r="C113" t="s">
@@ -5559,7 +5574,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="29" t="s">
         <v>548</v>
       </c>
       <c r="C114" t="s">
@@ -5567,7 +5582,7 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="28">
+      <c r="B115" s="30">
         <v>45731</v>
       </c>
       <c r="C115" t="s">
@@ -5580,7 +5595,7 @@
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="13" t="s">
         <v>580</v>
       </c>
       <c r="C120" s="25" t="s">
@@ -5591,114 +5606,114 @@
       <c r="F120" s="26"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="15"/>
-      <c r="C121" s="16" t="s">
+      <c r="B121" s="14"/>
+      <c r="C121" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D121" s="16" t="s">
+      <c r="D121" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="E121" s="16"/>
-      <c r="F121" s="17" t="s">
+      <c r="E121" s="15"/>
+      <c r="F121" s="16" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="C122" s="19" t="s">
+      <c r="C122" s="18" t="s">
         <v>555</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="19" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="C123" s="19" t="s">
+      <c r="C123" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D123" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="F123" s="20" t="s">
+      <c r="F123" s="19" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="C124" s="19" t="s">
+      <c r="C124" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="F124" s="20" t="s">
+      <c r="F124" s="19" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="C125" s="19" t="s">
+      <c r="C125" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="F125" s="20" t="s">
+      <c r="F125" s="19" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="C126" s="19" t="s">
+      <c r="C126" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="D126" s="19" t="s">
+      <c r="D126" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="F126" s="20" t="s">
+      <c r="F126" s="19" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C127" s="19" t="s">
+      <c r="C127" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="D127" s="19" t="s">
+      <c r="D127" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="F127" s="20" t="s">
+      <c r="F127" s="19" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="21" t="s">
+      <c r="B128" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="C128" s="22" t="s">
+      <c r="C128" s="21" t="s">
         <v>561</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D128" s="21" t="s">
         <v>563</v>
       </c>
-      <c r="E128" s="23"/>
-      <c r="F128" s="24" t="s">
+      <c r="E128" s="22"/>
+      <c r="F128" s="23" t="s">
         <v>567</v>
       </c>
     </row>

--- a/Front Board/BOM-FB-Rev2h.xlsx
+++ b/Front Board/BOM-FB-Rev2h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\Front Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFED550-475A-416B-A8C3-86211C2E6B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7F83A-9D25-41C5-8AB1-30052C4542B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1770" windowWidth="24510" windowHeight="15255" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24510" windowHeight="15255" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FrontBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="605">
   <si>
     <t>Quantity</t>
   </si>
@@ -1704,12 +1704,6 @@
     <t>41K2</t>
   </si>
   <si>
-    <t>30K</t>
-  </si>
-  <si>
-    <t>26K1</t>
-  </si>
-  <si>
     <t>18K7</t>
   </si>
   <si>
@@ -1810,6 +1804,45 @@
   </si>
   <si>
     <t>Also check Newark, they have transformers that are less expensive and some low stock parts still available.</t>
+  </si>
+  <si>
+    <t>30K1</t>
+  </si>
+  <si>
+    <t>26K7</t>
+  </si>
+  <si>
+    <t>6V</t>
+  </si>
+  <si>
+    <t>24K4</t>
+  </si>
+  <si>
+    <t>16K9</t>
+  </si>
+  <si>
+    <t>7.5V</t>
+  </si>
+  <si>
+    <t>21K</t>
+  </si>
+  <si>
+    <t>10K5</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
+    <t>17K4</t>
+  </si>
+  <si>
+    <t>11K5</t>
+  </si>
+  <si>
+    <t>34K</t>
+  </si>
+  <si>
+    <t>Also look at the spreadsheet on the Github site under Front Board.</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1850,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$]d\ mmm\ yyyy;@" x16r2:formatCode16="[$-en-NL,1]d\ mmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$]d\ mmm\ yyyy;@" x16r2:formatCode16="[$-en-NL,1]d\ mmm\ yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1870,7 +1903,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1984,12 +2017,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2027,33 +2097,28 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2061,16 +2126,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2389,10 +2474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:XFD118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>232</v>
@@ -3324,36 +3409,36 @@
         <v>236</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L32" s="12"/>
     </row>
@@ -3522,7 +3607,7 @@
         <v>263</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3558,7 +3643,7 @@
         <v>269</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3627,7 +3712,7 @@
         <v>281</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4988,10 +5073,10 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>156</v>
@@ -5005,16 +5090,16 @@
         <v>152</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5147,7 +5232,7 @@
         <v>395</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5159,27 +5244,27 @@
         <v>392</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="E90" s="24"/>
+        <v>582</v>
+      </c>
+      <c r="E90" s="19"/>
       <c r="F90" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="G90" s="24"/>
+        <v>582</v>
+      </c>
+      <c r="G90" s="19"/>
       <c r="H90" s="10" t="s">
         <v>394</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="J90" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5368,7 +5453,7 @@
         <v>423</v>
       </c>
       <c r="L96" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -5380,27 +5465,27 @@
         <v>420</v>
       </c>
       <c r="D97" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="F97" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="G97" s="19"/>
+      <c r="H97" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="G97" s="24"/>
-      <c r="H97" s="10" t="s">
+      <c r="L97" s="11" t="s">
         <v>587</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K97" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="L97" s="11" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -5502,7 +5587,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="20" t="s">
         <v>522</v>
       </c>
       <c r="C103" s="7" t="s">
@@ -5510,7 +5595,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="21" t="s">
         <v>523</v>
       </c>
       <c r="C104" t="s">
@@ -5518,55 +5603,55 @@
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="28"/>
+      <c r="B105" s="21"/>
       <c r="C105" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="28"/>
+      <c r="B106" s="21"/>
       <c r="C106" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="28"/>
+      <c r="B107" s="21"/>
       <c r="C107" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B108" s="28"/>
+      <c r="B108" s="21"/>
       <c r="C108" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="28"/>
+      <c r="B109" s="21"/>
       <c r="C109" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="28"/>
+      <c r="B110" s="21"/>
       <c r="C110" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="28"/>
+      <c r="B111" s="21"/>
       <c r="C111" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B112" s="28"/>
+      <c r="B112" s="21"/>
       <c r="C112" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="21" t="s">
         <v>544</v>
       </c>
       <c r="C113" t="s">
@@ -5574,7 +5659,7 @@
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="22" t="s">
         <v>548</v>
       </c>
       <c r="C114" t="s">
@@ -5582,144 +5667,204 @@
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="30">
+      <c r="B115" s="23">
         <v>45731</v>
       </c>
       <c r="C115" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>577</v>
+      </c>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="25"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="14"/>
+      <c r="C122" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D122" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E122" s="27"/>
+      <c r="F122" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="E123" s="26"/>
+      <c r="F123" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="E124" s="26"/>
+      <c r="F124" s="17" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E125" s="26"/>
+      <c r="F125" s="17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E126" s="26"/>
+      <c r="F126" s="17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="C127" s="28" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
-      <c r="F120" s="26"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="14"/>
-      <c r="C121" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="E121" s="15"/>
-      <c r="F121" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="17" t="s">
-        <v>549</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="D123" s="18" t="s">
+      <c r="D127" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="E127" s="26"/>
+      <c r="F127" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="F123" s="19" t="s">
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C128" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E128" s="26"/>
+      <c r="F128" s="17" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="F124" s="19" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="17" t="s">
-        <v>568</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="F125" s="19" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="C126" s="18" t="s">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="C129" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="D126" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="F126" s="19" t="s">
+      <c r="D129" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E129" s="26"/>
+      <c r="F129" s="17" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="D127" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="F127" s="19" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B128" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="D128" s="21" t="s">
-        <v>563</v>
-      </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="23" t="s">
-        <v>567</v>
-      </c>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="C130" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D130" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E130" s="26"/>
+      <c r="F130" s="31" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="C131" s="29" t="s">
+        <v>598</v>
+      </c>
+      <c r="D131" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="E131" s="26"/>
+      <c r="F131" s="31" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="D132" s="33" t="s">
+        <v>602</v>
+      </c>
+      <c r="E132" s="18"/>
+      <c r="F132" s="34" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="35" t="s">
+        <v>604</v>
+      </c>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C120:F120"/>
+    <mergeCell ref="C121:F121"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Front Board/BOM-FB-Rev2h.xlsx
+++ b/Front Board/BOM-FB-Rev2h.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Curve Tracer\Version 3\Final Version\Front Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7F83A-9D25-41C5-8AB1-30052C4542B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1512E5-431D-4BC0-BC27-067D31FC9D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24510" windowHeight="15255" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
+    <workbookView xWindow="2685" yWindow="1575" windowWidth="24510" windowHeight="15255" xr2:uid="{48624DCA-0D75-4A56-BB2F-AC0F8E911790}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM-FrontBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="607">
   <si>
     <t>Quantity</t>
   </si>
@@ -1341,18 +1341,9 @@
     <t>TP Thru-Hole</t>
   </si>
   <si>
-    <t>TP-.038</t>
-  </si>
-  <si>
     <t>UW</t>
   </si>
   <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>[NoParam], Gold</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -1843,6 +1834,21 @@
   </si>
   <si>
     <t>Also look at the spreadsheet on the Github site under Front Board.</t>
+  </si>
+  <si>
+    <t>model 1031 van Keystone Electronics. PC Test Point Slotted Digikey pn 36-1031-ND</t>
+  </si>
+  <si>
+    <t>36-1031-ND</t>
+  </si>
+  <si>
+    <t>Keystone</t>
+  </si>
+  <si>
+    <t>Model 1031</t>
+  </si>
+  <si>
+    <t>Added pn for the test pins</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2065,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2120,42 +2126,35 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2477,7 +2476,7 @@
   <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:XFD118"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,12 +2496,12 @@
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2519,19 +2518,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>6</v>
@@ -2570,7 +2569,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2603,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2636,7 +2635,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2669,7 +2668,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2830,7 +2829,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2861,7 +2860,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2894,7 +2893,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3208,7 +3207,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3241,7 +3240,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3373,7 +3372,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3381,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>232</v>
@@ -3409,36 +3408,36 @@
         <v>236</v>
       </c>
       <c r="L31" s="11" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="4" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
         <v>204</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="L32" s="12"/>
     </row>
@@ -3505,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3607,7 +3606,7 @@
         <v>263</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3643,7 +3642,7 @@
         <v>269</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3712,7 +3711,7 @@
         <v>281</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -4075,7 +4074,7 @@
         <v>14</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4347,32 +4346,32 @@
         <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="4" t="s">
         <v>93</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4380,30 +4379,30 @@
         <v>1</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4411,30 +4410,30 @@
         <v>3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4442,30 +4441,30 @@
         <v>1</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4473,30 +4472,30 @@
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="4" t="s">
         <v>93</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4504,30 +4503,30 @@
         <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4535,30 +4534,30 @@
         <v>2</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4566,30 +4565,30 @@
         <v>2</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4597,35 +4596,35 @@
         <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D70" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4658,7 +4657,7 @@
         <v>14</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4831,7 +4830,7 @@
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="4" t="s">
@@ -4862,20 +4861,20 @@
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="4" t="s">
         <v>122</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4968,7 +4967,7 @@
         <v>146</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -5009,13 +5008,13 @@
         <v>1</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="4" t="s">
@@ -5028,13 +5027,13 @@
         <v>159</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5073,10 +5072,10 @@
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>156</v>
@@ -5090,16 +5089,16 @@
         <v>152</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5140,10 +5139,10 @@
         <v>2</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>171</v>
@@ -5159,7 +5158,7 @@
         <v>172</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>14</v>
@@ -5173,10 +5172,10 @@
         <v>2</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>171</v>
@@ -5232,7 +5231,7 @@
         <v>395</v>
       </c>
       <c r="L89" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5244,27 +5243,27 @@
         <v>392</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G90" s="19"/>
       <c r="H90" s="10" t="s">
         <v>394</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="J90" s="10" t="s">
         <v>14</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L90" s="11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5368,27 +5367,27 @@
         <v>413</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="4" t="s">
         <v>399</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -5453,7 +5452,7 @@
         <v>423</v>
       </c>
       <c r="L96" s="11" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -5465,27 +5464,27 @@
         <v>420</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G97" s="19"/>
       <c r="H97" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I97" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="L97" s="11" t="s">
         <v>584</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K97" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="L97" s="11" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -5560,110 +5559,110 @@
       <c r="C100" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="E100" s="19"/>
+      <c r="F100" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="G100" s="19"/>
+      <c r="H100" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="J100" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>440</v>
+      <c r="K100" s="34" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B102" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B103" s="20" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B104" s="21" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C104" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B105" s="21"/>
       <c r="C105" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B106" s="21"/>
       <c r="C106" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B107" s="21"/>
       <c r="C107" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B108" s="21"/>
       <c r="C108" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109" s="21"/>
       <c r="C109" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110" s="21"/>
       <c r="C110" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111" s="21"/>
       <c r="C111" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="21"/>
       <c r="C112" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="21" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C113" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="22" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C114" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.25">
@@ -5671,196 +5670,192 @@
         <v>45731</v>
       </c>
       <c r="C115" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>591</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="C121" s="24" t="s">
-        <v>577</v>
-      </c>
-      <c r="D121" s="24"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="25"/>
+        <v>575</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="33"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="14"/>
-      <c r="C122" s="27" t="s">
+      <c r="C122" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="D122" s="27" t="s">
+      <c r="D122" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="E122" s="27"/>
+      <c r="E122" s="24"/>
       <c r="F122" s="15" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="E123" s="26"/>
+        <v>546</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>557</v>
+      </c>
       <c r="F123" s="17" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="D124" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="E124" s="26"/>
+        <v>547</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="D124" s="25" t="s">
+        <v>558</v>
+      </c>
       <c r="F124" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="16" t="s">
-        <v>551</v>
-      </c>
-      <c r="C125" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="D125" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="D125" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="E125" s="26"/>
       <c r="F125" s="17" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="16" t="s">
-        <v>566</v>
-      </c>
-      <c r="C126" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="D126" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="D126" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E126" s="26"/>
       <c r="F126" s="17" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>593</v>
-      </c>
-      <c r="D127" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="E127" s="26"/>
+        <v>549</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>558</v>
+      </c>
       <c r="F127" s="17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>558</v>
-      </c>
-      <c r="D128" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="D128" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E128" s="26"/>
       <c r="F128" s="17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="D129" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="D129" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E129" s="26"/>
       <c r="F129" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="30" t="s">
+      <c r="B130" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D130" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F130" s="17" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="C130" s="29" t="s">
+      <c r="C131" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="D130" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="E130" s="26"/>
-      <c r="F130" s="31" t="s">
+      <c r="D131" s="25" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="30" t="s">
+      <c r="F131" s="17" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C132" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="D131" s="29" t="s">
+      <c r="D132" s="27" t="s">
         <v>599</v>
       </c>
-      <c r="E131" s="26"/>
-      <c r="F131" s="31" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="32" t="s">
+      <c r="E132" s="18"/>
+      <c r="F132" s="28" t="s">
         <v>600</v>
       </c>
-      <c r="C132" s="33" t="s">
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="29" t="s">
         <v>601</v>
       </c>
-      <c r="D132" s="33" t="s">
-        <v>602</v>
-      </c>
-      <c r="E132" s="18"/>
-      <c r="F132" s="34" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="35" t="s">
-        <v>604</v>
-      </c>
-      <c r="C133" s="36"/>
-      <c r="D133" s="36"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="37"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
